--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value760.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value760.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9778653733998925</v>
+        <v>1.07059633731842</v>
       </c>
       <c r="B1">
-        <v>2.598484003144133</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.634664134187552</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.271178954322746</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.23266644735607</v>
+        <v>1.023311614990234</v>
       </c>
     </row>
   </sheetData>
